--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2297279.770789857</v>
+        <v>2295392.189273456</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>595440.873184653</v>
+        <v>870786.5518303324</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9997144.622418236</v>
+        <v>9997144.62241824</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>388.7598212753467</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>172.4886556590845</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>40.09050805626379</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>47.50320101340354</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,13 +1069,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>148.6766766720164</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481157</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343914061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>102.2825523293366</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>24.011539033254</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18.67952670034444</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>87.47847194725657</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>93.78028975414712</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.43878055347977</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>62.09617589318538</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2533,10 +2533,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8295759545805055</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>176.8688121773855</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.733841663483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>1.042680388411071</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389792</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571505</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>52.08681784617286</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206854</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463136</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.881273373638</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.881273373638</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>857.6155747668879</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>857.6155747668879</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>446.6296699772803</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2291.711948550679</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2291.711948550679</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1960.649061207109</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1607.880405936995</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1234.414647675915</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>108.3618485648683</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2649.166059691552</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.103172347981</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4702,25 +4702,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312045</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>962.0987983716334</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>603.8330997648829</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>218.0448471666387</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.8663858817736</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733134</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224086</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791255</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.35861618681</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843239</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573125</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312045</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312045</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615932</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572653</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315297</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050022</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464794</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>53.9429818203645</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9429818203645</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>53.9429818203645</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084178</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648876</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5124,19 +5124,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.4711712918558</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="C13" t="n">
-        <v>121.4711712918555</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D13" t="n">
-        <v>121.4711712918555</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4711712918555</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>121.4711712918555</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570734</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201128</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220955</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1196361220955</v>
+        <v>609.3753482118777</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,10 +5273,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.888341328816</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="C16" t="n">
-        <v>410.888341328816</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227916</v>
       </c>
       <c r="V16" t="n">
-        <v>820.526357057073</v>
+        <v>874.9271131227916</v>
       </c>
       <c r="W16" t="n">
-        <v>820.526357057073</v>
+        <v>874.9271131227916</v>
       </c>
       <c r="X16" t="n">
-        <v>592.5368061590557</v>
+        <v>646.9375622247743</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.5368061590557</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,10 +5510,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5522,43 +5522,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.3911813763034</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C19" t="n">
-        <v>321.3911813763034</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
         <v>265.3924131404652</v>
@@ -5662,31 +5662,31 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5710,13 +5710,13 @@
         <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045605</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065431</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.0396462065431</v>
+        <v>510.2366179610304</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,25 +5774,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>334.2881267578673</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.192860564785</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1212.407445354291</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>923.2788065678494</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>668.5943183619626</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>668.5943183619626</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578661</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262962</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765198</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.2170914602859</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.2170914602859</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578661</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028591</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028591</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028591</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028591</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.078315048225</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.158304963777</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.158304963777</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765196</v>
+        <v>1298.158304963777</v>
       </c>
       <c r="V28" t="n">
-        <v>607.4268406407766</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="W28" t="n">
-        <v>318.009670603816</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X28" t="n">
-        <v>318.009670603816</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028591</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="29">
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,28 +6528,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571612</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606512</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215264</v>
+        <v>564.3668169895388</v>
       </c>
       <c r="C31" t="n">
-        <v>637.69950177499</v>
+        <v>451.1914993430026</v>
       </c>
       <c r="D31" t="n">
-        <v>543.343727644025</v>
+        <v>451.1914993430026</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430024</v>
+        <v>451.1914993430026</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264627</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1282.647409342632</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1048.991104587042</v>
+        <v>902.6804289818915</v>
       </c>
       <c r="X31" t="n">
-        <v>876.7624189703954</v>
+        <v>730.4517433652449</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703954</v>
+        <v>565.4200295030854</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578661</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,40 +6853,40 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.2170914602859</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.2170914602859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.2170914602859</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.658114660566</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924717</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,31 +7163,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028589</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605665</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924717</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>263.5382936126482</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254954</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417963</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417963</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417963</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849275</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>213.598511846482</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>64.96426876929122</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>142.4820294301236</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>129.9359463178679</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>131.1061814048382</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>86.05169042779018</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>93.17669246473258</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>135.8246340904179</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338454</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.1347764492123</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>75.26883114644249</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>123.5860431649693</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>144.8475688490982</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360742</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360745</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840712.4784360742</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459065</v>
+        <v>527889.2306459066</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.8854161145</v>
+        <v>549209.8854161142</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="N2" t="n">
+        <v>554203.1946583918</v>
+      </c>
+      <c r="O2" t="n">
         <v>554203.1946583908</v>
-      </c>
-      <c r="O2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="P2" t="n">
         <v>554203.1946583913</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.500207518911338e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.278882670405437e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086708</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806189</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758888</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905759236</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759314</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758697</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905757613</v>
+        <v>787.7936905759224</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477224</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189623</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189626</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022284</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002545</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001817</v>
+        <v>-257682.901800182</v>
       </c>
       <c r="C6" t="n">
         <v>332284.9774143628</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.977414362</v>
+        <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028094</v>
+        <v>-90143.38459625357</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066144</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="G6" t="n">
-        <v>435114.1110066143</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066139</v>
+        <v>435016.651880642</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066139</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140213</v>
+        <v>258593.4326880495</v>
       </c>
       <c r="K6" t="n">
-        <v>389466.6553782739</v>
+        <v>389448.1616403391</v>
       </c>
       <c r="L6" t="n">
-        <v>422938.6011056029</v>
+        <v>422938.6011056023</v>
       </c>
       <c r="M6" t="n">
-        <v>298480.4926726321</v>
+        <v>298480.492672632</v>
       </c>
       <c r="N6" t="n">
-        <v>433281.5079064693</v>
+        <v>433281.50790647</v>
       </c>
       <c r="O6" t="n">
-        <v>433281.5079064697</v>
+        <v>433281.5079064691</v>
       </c>
       <c r="P6" t="n">
-        <v>389118.902603624</v>
+        <v>389118.9026036239</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170872</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,19 +26811,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108371</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237013</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545565</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.02434874544826</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>43.95966469857333</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>366.7855376854477</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>203.7209664948858</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>258.199369069695</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594872</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853693</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491422</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.957595037869384e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.444267011014745e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,7 +31364,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>87.78329382423925</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554475</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633811</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473563</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141122</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188926</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890693</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396487</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034989</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061916</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078621</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644451</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813584</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302251</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175858</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383812</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701168</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776708</v>
+        <v>116.2910049759612</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>401.3535651405691</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>7.17972669619428</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813465</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855529</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710958</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215735</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555639</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33287,13 +33287,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647471</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855529</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710958</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813465</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855529</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710958</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>224.6051223555648</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34448,25 +34448,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770702</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.82557620313</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535483</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713965</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873161</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
@@ -35501,13 +35501,13 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700522</v>
+        <v>367.5570798082463</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>724.9245949685507</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700522</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>239.4656922197793</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.465692219778</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415667</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.226021517838</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197779</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415667</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.226021517838</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157842</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941225</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.465692219778</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415667</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.226021517838</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502437</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629091</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415667</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.226021517838</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502437</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629097</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>572.6057846157851</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>71.46447792446374</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
